--- a/Tables/Indicator_OTUs_table_by_host.xlsx
+++ b/Tables/Indicator_OTUs_table_by_host.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/liberjul_msu_edu/Documents/Documents/MSU/Undergrad/Fall 2018/PLP 847/miseq_dat/Leaf_litter_communities/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{4525134C-F3F8-4522-AA44-BC08756F593C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09E93631-FAC8-4220-9008-5A494F8C32AB}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{4525134C-F3F8-4522-AA44-BC08756F593C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A003C52C-9B1E-478A-BAD4-C0B8B8D98F77}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{39DCFC5A-FC43-46D7-8741-D84C4CB1D525}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Substrate</t>
   </si>
@@ -53,9 +53,6 @@
     <t>OTU_56</t>
   </si>
   <si>
-    <t>OTU_91</t>
-  </si>
-  <si>
     <t>Endophyte</t>
   </si>
   <si>
@@ -176,12 +173,6 @@
     <t>OTU_332</t>
   </si>
   <si>
-    <t>OTU_213</t>
-  </si>
-  <si>
-    <t>OTU_735</t>
-  </si>
-  <si>
     <t>OTU_270</t>
   </si>
   <si>
@@ -363,6 +354,39 @@
   </si>
   <si>
     <r>
+      <t>Venturia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sp.</t>
+    </r>
+  </si>
+  <si>
+    <t>OTU_461</t>
+  </si>
+  <si>
+    <t>OTU_359</t>
+  </si>
+  <si>
+    <t>OTU_105</t>
+  </si>
+  <si>
+    <t>Mycosphaerellaceae sp.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>Sphaerulina</t>
     </r>
     <r>
@@ -373,30 +397,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sp.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sphaerulina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sp</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
 </sst>
@@ -447,7 +447,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +457,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -497,6 +509,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -815,9 +848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A320A-C0B0-403A-A4F2-4DFCED8553AE}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -845,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -853,16 +886,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>1.13192307692308E-2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -871,13 +904,13 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4">
         <v>1.13192307692308E-2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -886,13 +919,13 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>1.7311764705882401E-2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -901,32 +934,32 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4">
         <v>1.7311764705882401E-2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>1.7311764705882401E-2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -935,76 +968,76 @@
         <v>1.13192307692308E-2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>1.13192307692308E-2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
         <v>1.13192307692308E-2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>1.13192307692308E-2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4">
         <v>1.13192307692308E-2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>1.13192307692308E-2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1012,201 +1045,201 @@
         <v>4</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
         <v>1.13192307692308E-2</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12">
         <v>1.13192307692308E-2</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
+      <c r="E14" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>1.13192307692308E-2</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2">
-        <v>1.13192307692308E-2</v>
+        <v>1.7311764705882401E-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6">
         <v>1.13192307692308E-2</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>57</v>
+      <c r="E17" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
-        <v>1.7311764705882401E-2</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>2.26384615384615E-2</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.7311764705882401E-2</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>19</v>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3.8596721311475402E-2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4.0131818181818199E-2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4.2042857142857097E-2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1.13192307692308E-2</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2">
-        <v>2.26384615384615E-2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="D23" s="6">
+        <v>1.13192307692308E-2</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2">
-        <v>3.8596721311475402E-2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="D24" s="12">
+        <v>3.0030612244897899E-2</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4">
-        <v>1.13192307692308E-2</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D25" s="6">
+        <v>4.0131818181818199E-2</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="2">
-        <v>1.13192307692308E-2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3.0030612244897899E-2</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4.0131818181818199E-2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="D26" s="12">
         <v>4.7823749999999998E-2</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>47</v>
+      <c r="E26" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1219,18 +1252,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1418,14 +1451,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CE91A7C-6955-4F6F-A8F8-9CC25BBFD0AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD0A7FC-B413-4D13-B12B-20BACAF4E5F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1437,6 +1462,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CE91A7C-6955-4F6F-A8F8-9CC25BBFD0AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
